--- a/NetLiquidity/TreasuryData/TGA_Since2005_RS.xlsx
+++ b/NetLiquidity/TreasuryData/TGA_Since2005_RS.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6361"/>
+  <dimension ref="A1:D6487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89501,6 +89501,1770 @@
         <v>415005</v>
       </c>
     </row>
+    <row r="6362">
+      <c r="A6362" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="B6362" t="n">
+        <v>355232</v>
+      </c>
+      <c r="C6362" t="n">
+        <v>327193</v>
+      </c>
+      <c r="D6362" t="n">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="6363">
+      <c r="A6363" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="B6363" t="n">
+        <v>355232</v>
+      </c>
+      <c r="C6363" t="n">
+        <v>327193</v>
+      </c>
+      <c r="D6363" t="n">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="6364">
+      <c r="A6364" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="B6364" t="n">
+        <v>355232</v>
+      </c>
+      <c r="C6364" t="n">
+        <v>327193</v>
+      </c>
+      <c r="D6364" t="n">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="6365">
+      <c r="A6365" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="B6365" t="n">
+        <v>327193</v>
+      </c>
+      <c r="C6365" t="n">
+        <v>340182</v>
+      </c>
+      <c r="D6365" t="n">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="6366">
+      <c r="A6366" s="2" t="n">
+        <v>44992</v>
+      </c>
+      <c r="B6366" t="n">
+        <v>340182</v>
+      </c>
+      <c r="C6366" t="n">
+        <v>344724</v>
+      </c>
+      <c r="D6366" t="n">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="6367">
+      <c r="A6367" s="2" t="n">
+        <v>44993</v>
+      </c>
+      <c r="B6367" t="n">
+        <v>344724</v>
+      </c>
+      <c r="C6367" t="n">
+        <v>311731</v>
+      </c>
+      <c r="D6367" t="n">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="6368">
+      <c r="A6368" s="2" t="n">
+        <v>44994</v>
+      </c>
+      <c r="B6368" t="n">
+        <v>311731</v>
+      </c>
+      <c r="C6368" t="n">
+        <v>246969</v>
+      </c>
+      <c r="D6368" t="n">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="6369">
+      <c r="A6369" s="2" t="n">
+        <v>44995</v>
+      </c>
+      <c r="B6369" t="n">
+        <v>246969</v>
+      </c>
+      <c r="C6369" t="n">
+        <v>208074</v>
+      </c>
+      <c r="D6369" t="n">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="6370">
+      <c r="A6370" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="B6370" t="n">
+        <v>246969</v>
+      </c>
+      <c r="C6370" t="n">
+        <v>208074</v>
+      </c>
+      <c r="D6370" t="n">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="6371">
+      <c r="A6371" s="2" t="n">
+        <v>44997</v>
+      </c>
+      <c r="B6371" t="n">
+        <v>246969</v>
+      </c>
+      <c r="C6371" t="n">
+        <v>208074</v>
+      </c>
+      <c r="D6371" t="n">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="6372">
+      <c r="A6372" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="B6372" t="n">
+        <v>208074</v>
+      </c>
+      <c r="C6372" t="n">
+        <v>227312</v>
+      </c>
+      <c r="D6372" t="n">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="6373">
+      <c r="A6373" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B6373" t="n">
+        <v>227312</v>
+      </c>
+      <c r="C6373" t="n">
+        <v>253921</v>
+      </c>
+      <c r="D6373" t="n">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="6374">
+      <c r="A6374" s="2" t="n">
+        <v>45000</v>
+      </c>
+      <c r="B6374" t="n">
+        <v>253921</v>
+      </c>
+      <c r="C6374" t="n">
+        <v>277643</v>
+      </c>
+      <c r="D6374" t="n">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="6375">
+      <c r="A6375" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="B6375" t="n">
+        <v>277643</v>
+      </c>
+      <c r="C6375" t="n">
+        <v>285108</v>
+      </c>
+      <c r="D6375" t="n">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="6376">
+      <c r="A6376" s="2" t="n">
+        <v>45002</v>
+      </c>
+      <c r="B6376" t="n">
+        <v>285108</v>
+      </c>
+      <c r="C6376" t="n">
+        <v>280148</v>
+      </c>
+      <c r="D6376" t="n">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="6377">
+      <c r="A6377" s="2" t="n">
+        <v>45003</v>
+      </c>
+      <c r="B6377" t="n">
+        <v>285108</v>
+      </c>
+      <c r="C6377" t="n">
+        <v>280148</v>
+      </c>
+      <c r="D6377" t="n">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="6378">
+      <c r="A6378" s="2" t="n">
+        <v>45004</v>
+      </c>
+      <c r="B6378" t="n">
+        <v>285108</v>
+      </c>
+      <c r="C6378" t="n">
+        <v>280148</v>
+      </c>
+      <c r="D6378" t="n">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="6379">
+      <c r="A6379" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="B6379" t="n">
+        <v>280148</v>
+      </c>
+      <c r="C6379" t="n">
+        <v>267101</v>
+      </c>
+      <c r="D6379" t="n">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="6380">
+      <c r="A6380" s="2" t="n">
+        <v>45006</v>
+      </c>
+      <c r="B6380" t="n">
+        <v>267101</v>
+      </c>
+      <c r="C6380" t="n">
+        <v>224604</v>
+      </c>
+      <c r="D6380" t="n">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="6381">
+      <c r="A6381" s="2" t="n">
+        <v>45007</v>
+      </c>
+      <c r="B6381" t="n">
+        <v>224604</v>
+      </c>
+      <c r="C6381" t="n">
+        <v>199856</v>
+      </c>
+      <c r="D6381" t="n">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="6382">
+      <c r="A6382" s="2" t="n">
+        <v>45008</v>
+      </c>
+      <c r="B6382" t="n">
+        <v>199856</v>
+      </c>
+      <c r="C6382" t="n">
+        <v>192910</v>
+      </c>
+      <c r="D6382" t="n">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="6383">
+      <c r="A6383" s="2" t="n">
+        <v>45009</v>
+      </c>
+      <c r="B6383" t="n">
+        <v>192910</v>
+      </c>
+      <c r="C6383" t="n">
+        <v>187365</v>
+      </c>
+      <c r="D6383" t="n">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="6384">
+      <c r="A6384" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="B6384" t="n">
+        <v>192910</v>
+      </c>
+      <c r="C6384" t="n">
+        <v>187365</v>
+      </c>
+      <c r="D6384" t="n">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="6385">
+      <c r="A6385" s="2" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B6385" t="n">
+        <v>192910</v>
+      </c>
+      <c r="C6385" t="n">
+        <v>187365</v>
+      </c>
+      <c r="D6385" t="n">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="6386">
+      <c r="A6386" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="B6386" t="n">
+        <v>187365</v>
+      </c>
+      <c r="C6386" t="n">
+        <v>200926</v>
+      </c>
+      <c r="D6386" t="n">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="6387">
+      <c r="A6387" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="B6387" t="n">
+        <v>200926</v>
+      </c>
+      <c r="C6387" t="n">
+        <v>166348</v>
+      </c>
+      <c r="D6387" t="n">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="6388">
+      <c r="A6388" s="2" t="n">
+        <v>45014</v>
+      </c>
+      <c r="B6388" t="n">
+        <v>166348</v>
+      </c>
+      <c r="C6388" t="n">
+        <v>162758</v>
+      </c>
+      <c r="D6388" t="n">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="6389">
+      <c r="A6389" s="2" t="n">
+        <v>45015</v>
+      </c>
+      <c r="B6389" t="n">
+        <v>162758</v>
+      </c>
+      <c r="C6389" t="n">
+        <v>194336</v>
+      </c>
+      <c r="D6389" t="n">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="6390">
+      <c r="A6390" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B6390" t="n">
+        <v>194336</v>
+      </c>
+      <c r="C6390" t="n">
+        <v>177692</v>
+      </c>
+      <c r="D6390" t="n">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="6391">
+      <c r="A6391" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B6391" t="n">
+        <v>194336</v>
+      </c>
+      <c r="C6391" t="n">
+        <v>177692</v>
+      </c>
+      <c r="D6391" t="n">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="6392">
+      <c r="A6392" s="2" t="n">
+        <v>45018</v>
+      </c>
+      <c r="B6392" t="n">
+        <v>194336</v>
+      </c>
+      <c r="C6392" t="n">
+        <v>177692</v>
+      </c>
+      <c r="D6392" t="n">
+        <v>415005</v>
+      </c>
+    </row>
+    <row r="6393">
+      <c r="A6393" s="2" t="n">
+        <v>45019</v>
+      </c>
+      <c r="B6393" t="n">
+        <v>177692</v>
+      </c>
+      <c r="C6393" t="n">
+        <v>173105</v>
+      </c>
+      <c r="D6393" t="n">
+        <v>177692</v>
+      </c>
+    </row>
+    <row r="6394">
+      <c r="A6394" s="2" t="n">
+        <v>45020</v>
+      </c>
+      <c r="B6394" t="n">
+        <v>173105</v>
+      </c>
+      <c r="C6394" t="n">
+        <v>140347</v>
+      </c>
+      <c r="D6394" t="n">
+        <v>177692</v>
+      </c>
+    </row>
+    <row r="6395">
+      <c r="A6395" s="2" t="n">
+        <v>45021</v>
+      </c>
+      <c r="B6395" t="n">
+        <v>140347</v>
+      </c>
+      <c r="C6395" t="n">
+        <v>140688</v>
+      </c>
+      <c r="D6395" t="n">
+        <v>177692</v>
+      </c>
+    </row>
+    <row r="6396">
+      <c r="A6396" s="2" t="n">
+        <v>45022</v>
+      </c>
+      <c r="B6396" t="n">
+        <v>140688</v>
+      </c>
+      <c r="C6396" t="n">
+        <v>112965</v>
+      </c>
+      <c r="D6396" t="n">
+        <v>177692</v>
+      </c>
+    </row>
+    <row r="6397">
+      <c r="A6397" s="2" t="n">
+        <v>45023</v>
+      </c>
+      <c r="B6397" t="n">
+        <v>112965</v>
+      </c>
+      <c r="C6397" t="n">
+        <v>110822</v>
+      </c>
+      <c r="D6397" t="n">
+        <v>177692</v>
+      </c>
+    </row>
+    <row r="6398">
+      <c r="A6398" s="2" t="n">
+        <v>45024</v>
+      </c>
+      <c r="B6398" t="n">
+        <v>112965</v>
+      </c>
+      <c r="C6398" t="n">
+        <v>110822</v>
+      </c>
+      <c r="D6398" t="n">
+        <v>177692</v>
+      </c>
+    </row>
+    <row r="6399">
+      <c r="A6399" s="2" t="n">
+        <v>45025</v>
+      </c>
+      <c r="B6399" t="n">
+        <v>112965</v>
+      </c>
+      <c r="C6399" t="n">
+        <v>110822</v>
+      </c>
+      <c r="D6399" t="n">
+        <v>177692</v>
+      </c>
+    </row>
+    <row r="6400">
+      <c r="A6400" s="2" t="n">
+        <v>45026</v>
+      </c>
+      <c r="B6400" t="n">
+        <v>110822</v>
+      </c>
+      <c r="C6400" t="n">
+        <v>125004</v>
+      </c>
+      <c r="D6400" t="n">
+        <v>177692</v>
+      </c>
+    </row>
+    <row r="6401">
+      <c r="A6401" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="B6401" t="n">
+        <v>125004</v>
+      </c>
+      <c r="C6401" t="n">
+        <v>107469</v>
+      </c>
+      <c r="D6401" t="n">
+        <v>177692</v>
+      </c>
+    </row>
+    <row r="6402">
+      <c r="A6402" s="2" t="n">
+        <v>45028</v>
+      </c>
+      <c r="B6402" t="n">
+        <v>107469</v>
+      </c>
+      <c r="C6402" t="n">
+        <v>86554</v>
+      </c>
+      <c r="D6402" t="n">
+        <v>177692</v>
+      </c>
+    </row>
+    <row r="6403">
+      <c r="A6403" s="2" t="n">
+        <v>45029</v>
+      </c>
+      <c r="B6403" t="n">
+        <v>86554</v>
+      </c>
+      <c r="C6403" t="n">
+        <v>99488</v>
+      </c>
+      <c r="D6403" t="n">
+        <v>177692</v>
+      </c>
+    </row>
+    <row r="6404">
+      <c r="A6404" s="2" t="n">
+        <v>45030</v>
+      </c>
+      <c r="B6404" t="n">
+        <v>99488</v>
+      </c>
+      <c r="C6404" t="n">
+        <v>134890</v>
+      </c>
+      <c r="D6404" t="n">
+        <v>177692</v>
+      </c>
+    </row>
+    <row r="6405">
+      <c r="A6405" s="2" t="n">
+        <v>45031</v>
+      </c>
+      <c r="B6405" t="n">
+        <v>99488</v>
+      </c>
+      <c r="C6405" t="n">
+        <v>134890</v>
+      </c>
+      <c r="D6405" t="n">
+        <v>177692</v>
+      </c>
+    </row>
+    <row r="6406">
+      <c r="A6406" s="2" t="n">
+        <v>45032</v>
+      </c>
+      <c r="B6406" t="n">
+        <v>99488</v>
+      </c>
+      <c r="C6406" t="n">
+        <v>134890</v>
+      </c>
+      <c r="D6406" t="n">
+        <v>177692</v>
+      </c>
+    </row>
+    <row r="6407">
+      <c r="A6407" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="B6407" t="n">
+        <v>134890</v>
+      </c>
+      <c r="C6407" t="n">
+        <v>144079</v>
+      </c>
+      <c r="D6407" t="n">
+        <v>177692</v>
+      </c>
+    </row>
+    <row r="6408">
+      <c r="A6408" s="2" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B6408" t="n">
+        <v>144079</v>
+      </c>
+      <c r="C6408" t="n">
+        <v>252552</v>
+      </c>
+      <c r="D6408" t="n">
+        <v>177692</v>
+      </c>
+    </row>
+    <row r="6409">
+      <c r="A6409" s="2" t="n">
+        <v>45035</v>
+      </c>
+      <c r="B6409" t="n">
+        <v>252552</v>
+      </c>
+      <c r="C6409" t="n">
+        <v>265095</v>
+      </c>
+      <c r="D6409" t="n">
+        <v>177692</v>
+      </c>
+    </row>
+    <row r="6410">
+      <c r="A6410" s="2" t="n">
+        <v>45036</v>
+      </c>
+      <c r="B6410" t="n">
+        <v>265095</v>
+      </c>
+      <c r="C6410" t="n">
+        <v>279942</v>
+      </c>
+      <c r="D6410" t="n">
+        <v>177692</v>
+      </c>
+    </row>
+    <row r="6411">
+      <c r="A6411" s="2" t="n">
+        <v>45037</v>
+      </c>
+      <c r="B6411" t="n">
+        <v>279942</v>
+      </c>
+      <c r="C6411" t="n">
+        <v>280912</v>
+      </c>
+      <c r="D6411" t="n">
+        <v>177692</v>
+      </c>
+    </row>
+    <row r="6412">
+      <c r="A6412" s="2" t="n">
+        <v>45038</v>
+      </c>
+      <c r="B6412" t="n">
+        <v>279942</v>
+      </c>
+      <c r="C6412" t="n">
+        <v>280912</v>
+      </c>
+      <c r="D6412" t="n">
+        <v>177692</v>
+      </c>
+    </row>
+    <row r="6413">
+      <c r="A6413" s="2" t="n">
+        <v>45039</v>
+      </c>
+      <c r="B6413" t="n">
+        <v>279942</v>
+      </c>
+      <c r="C6413" t="n">
+        <v>280912</v>
+      </c>
+      <c r="D6413" t="n">
+        <v>177692</v>
+      </c>
+    </row>
+    <row r="6414">
+      <c r="A6414" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B6414" t="n">
+        <v>280912</v>
+      </c>
+      <c r="C6414" t="n">
+        <v>307101</v>
+      </c>
+      <c r="D6414" t="n">
+        <v>177692</v>
+      </c>
+    </row>
+    <row r="6415">
+      <c r="A6415" s="2" t="n">
+        <v>45041</v>
+      </c>
+      <c r="B6415" t="n">
+        <v>307101</v>
+      </c>
+      <c r="C6415" t="n">
+        <v>315930</v>
+      </c>
+      <c r="D6415" t="n">
+        <v>177692</v>
+      </c>
+    </row>
+    <row r="6416">
+      <c r="A6416" s="2" t="n">
+        <v>45042</v>
+      </c>
+      <c r="B6416" t="n">
+        <v>315930</v>
+      </c>
+      <c r="C6416" t="n">
+        <v>296209</v>
+      </c>
+      <c r="D6416" t="n">
+        <v>177692</v>
+      </c>
+    </row>
+    <row r="6417">
+      <c r="A6417" s="2" t="n">
+        <v>45043</v>
+      </c>
+      <c r="B6417" t="n">
+        <v>296209</v>
+      </c>
+      <c r="C6417" t="n">
+        <v>293717</v>
+      </c>
+      <c r="D6417" t="n">
+        <v>177692</v>
+      </c>
+    </row>
+    <row r="6418">
+      <c r="A6418" s="2" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B6418" t="n">
+        <v>293717</v>
+      </c>
+      <c r="C6418" t="n">
+        <v>316381</v>
+      </c>
+      <c r="D6418" t="n">
+        <v>177692</v>
+      </c>
+    </row>
+    <row r="6419">
+      <c r="A6419" s="2" t="n">
+        <v>45045</v>
+      </c>
+      <c r="B6419" t="n">
+        <v>293717</v>
+      </c>
+      <c r="C6419" t="n">
+        <v>316381</v>
+      </c>
+      <c r="D6419" t="n">
+        <v>177692</v>
+      </c>
+    </row>
+    <row r="6420">
+      <c r="A6420" s="2" t="n">
+        <v>45046</v>
+      </c>
+      <c r="B6420" t="n">
+        <v>293717</v>
+      </c>
+      <c r="C6420" t="n">
+        <v>316381</v>
+      </c>
+      <c r="D6420" t="n">
+        <v>177692</v>
+      </c>
+    </row>
+    <row r="6421">
+      <c r="A6421" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B6421" t="n">
+        <v>316381</v>
+      </c>
+      <c r="C6421" t="n">
+        <v>238463</v>
+      </c>
+      <c r="D6421" t="n">
+        <v>316381</v>
+      </c>
+    </row>
+    <row r="6422">
+      <c r="A6422" s="2" t="n">
+        <v>45048</v>
+      </c>
+      <c r="B6422" t="n">
+        <v>238463</v>
+      </c>
+      <c r="C6422" t="n">
+        <v>214882</v>
+      </c>
+      <c r="D6422" t="n">
+        <v>316381</v>
+      </c>
+    </row>
+    <row r="6423">
+      <c r="A6423" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="B6423" t="n">
+        <v>214882</v>
+      </c>
+      <c r="C6423" t="n">
+        <v>188309</v>
+      </c>
+      <c r="D6423" t="n">
+        <v>316381</v>
+      </c>
+    </row>
+    <row r="6424">
+      <c r="A6424" s="2" t="n">
+        <v>45050</v>
+      </c>
+      <c r="B6424" t="n">
+        <v>188309</v>
+      </c>
+      <c r="C6424" t="n">
+        <v>208666</v>
+      </c>
+      <c r="D6424" t="n">
+        <v>316381</v>
+      </c>
+    </row>
+    <row r="6425">
+      <c r="A6425" s="2" t="n">
+        <v>45051</v>
+      </c>
+      <c r="B6425" t="n">
+        <v>208666</v>
+      </c>
+      <c r="C6425" t="n">
+        <v>206714</v>
+      </c>
+      <c r="D6425" t="n">
+        <v>316381</v>
+      </c>
+    </row>
+    <row r="6426">
+      <c r="A6426" s="2" t="n">
+        <v>45052</v>
+      </c>
+      <c r="B6426" t="n">
+        <v>208666</v>
+      </c>
+      <c r="C6426" t="n">
+        <v>206714</v>
+      </c>
+      <c r="D6426" t="n">
+        <v>316381</v>
+      </c>
+    </row>
+    <row r="6427">
+      <c r="A6427" s="2" t="n">
+        <v>45053</v>
+      </c>
+      <c r="B6427" t="n">
+        <v>208666</v>
+      </c>
+      <c r="C6427" t="n">
+        <v>206714</v>
+      </c>
+      <c r="D6427" t="n">
+        <v>316381</v>
+      </c>
+    </row>
+    <row r="6428">
+      <c r="A6428" s="2" t="n">
+        <v>45054</v>
+      </c>
+      <c r="B6428" t="n">
+        <v>206714</v>
+      </c>
+      <c r="C6428" t="n">
+        <v>215133</v>
+      </c>
+      <c r="D6428" t="n">
+        <v>316381</v>
+      </c>
+    </row>
+    <row r="6429">
+      <c r="A6429" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B6429" t="n">
+        <v>215133</v>
+      </c>
+      <c r="C6429" t="n">
+        <v>184915</v>
+      </c>
+      <c r="D6429" t="n">
+        <v>316381</v>
+      </c>
+    </row>
+    <row r="6430">
+      <c r="A6430" s="2" t="n">
+        <v>45056</v>
+      </c>
+      <c r="B6430" t="n">
+        <v>184915</v>
+      </c>
+      <c r="C6430" t="n">
+        <v>154808</v>
+      </c>
+      <c r="D6430" t="n">
+        <v>316381</v>
+      </c>
+    </row>
+    <row r="6431">
+      <c r="A6431" s="2" t="n">
+        <v>45057</v>
+      </c>
+      <c r="B6431" t="n">
+        <v>154808</v>
+      </c>
+      <c r="C6431" t="n">
+        <v>143314</v>
+      </c>
+      <c r="D6431" t="n">
+        <v>316381</v>
+      </c>
+    </row>
+    <row r="6432">
+      <c r="A6432" s="2" t="n">
+        <v>45058</v>
+      </c>
+      <c r="B6432" t="n">
+        <v>143314</v>
+      </c>
+      <c r="C6432" t="n">
+        <v>139944</v>
+      </c>
+      <c r="D6432" t="n">
+        <v>316381</v>
+      </c>
+    </row>
+    <row r="6433">
+      <c r="A6433" s="2" t="n">
+        <v>45059</v>
+      </c>
+      <c r="B6433" t="n">
+        <v>143314</v>
+      </c>
+      <c r="C6433" t="n">
+        <v>139944</v>
+      </c>
+      <c r="D6433" t="n">
+        <v>316381</v>
+      </c>
+    </row>
+    <row r="6434">
+      <c r="A6434" s="2" t="n">
+        <v>45060</v>
+      </c>
+      <c r="B6434" t="n">
+        <v>143314</v>
+      </c>
+      <c r="C6434" t="n">
+        <v>139944</v>
+      </c>
+      <c r="D6434" t="n">
+        <v>316381</v>
+      </c>
+    </row>
+    <row r="6435">
+      <c r="A6435" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="B6435" t="n">
+        <v>139944</v>
+      </c>
+      <c r="C6435" t="n">
+        <v>87431</v>
+      </c>
+      <c r="D6435" t="n">
+        <v>316381</v>
+      </c>
+    </row>
+    <row r="6436">
+      <c r="A6436" s="2" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B6436" t="n">
+        <v>87431</v>
+      </c>
+      <c r="C6436" t="n">
+        <v>94629</v>
+      </c>
+      <c r="D6436" t="n">
+        <v>316381</v>
+      </c>
+    </row>
+    <row r="6437">
+      <c r="A6437" s="2" t="n">
+        <v>45063</v>
+      </c>
+      <c r="B6437" t="n">
+        <v>94629</v>
+      </c>
+      <c r="C6437" t="n">
+        <v>68332</v>
+      </c>
+      <c r="D6437" t="n">
+        <v>316381</v>
+      </c>
+    </row>
+    <row r="6438">
+      <c r="A6438" s="2" t="n">
+        <v>45064</v>
+      </c>
+      <c r="B6438" t="n">
+        <v>68332</v>
+      </c>
+      <c r="C6438" t="n">
+        <v>57341</v>
+      </c>
+      <c r="D6438" t="n">
+        <v>316381</v>
+      </c>
+    </row>
+    <row r="6439">
+      <c r="A6439" s="2" t="n">
+        <v>45065</v>
+      </c>
+      <c r="B6439" t="n">
+        <v>57341</v>
+      </c>
+      <c r="C6439" t="n">
+        <v>60656</v>
+      </c>
+      <c r="D6439" t="n">
+        <v>316381</v>
+      </c>
+    </row>
+    <row r="6440">
+      <c r="A6440" s="2" t="n">
+        <v>45066</v>
+      </c>
+      <c r="B6440" t="n">
+        <v>57341</v>
+      </c>
+      <c r="C6440" t="n">
+        <v>60656</v>
+      </c>
+      <c r="D6440" t="n">
+        <v>316381</v>
+      </c>
+    </row>
+    <row r="6441">
+      <c r="A6441" s="2" t="n">
+        <v>45067</v>
+      </c>
+      <c r="B6441" t="n">
+        <v>57341</v>
+      </c>
+      <c r="C6441" t="n">
+        <v>60656</v>
+      </c>
+      <c r="D6441" t="n">
+        <v>316381</v>
+      </c>
+    </row>
+    <row r="6442">
+      <c r="A6442" s="2" t="n">
+        <v>45068</v>
+      </c>
+      <c r="B6442" t="n">
+        <v>60656</v>
+      </c>
+      <c r="C6442" t="n">
+        <v>68335</v>
+      </c>
+      <c r="D6442" t="n">
+        <v>316381</v>
+      </c>
+    </row>
+    <row r="6443">
+      <c r="A6443" s="2" t="n">
+        <v>45069</v>
+      </c>
+      <c r="B6443" t="n">
+        <v>68335</v>
+      </c>
+      <c r="C6443" t="n">
+        <v>76546</v>
+      </c>
+      <c r="D6443" t="n">
+        <v>316381</v>
+      </c>
+    </row>
+    <row r="6444">
+      <c r="A6444" s="2" t="n">
+        <v>45070</v>
+      </c>
+      <c r="B6444" t="n">
+        <v>76546</v>
+      </c>
+      <c r="C6444" t="n">
+        <v>49473</v>
+      </c>
+      <c r="D6444" t="n">
+        <v>316381</v>
+      </c>
+    </row>
+    <row r="6445">
+      <c r="A6445" s="2" t="n">
+        <v>45071</v>
+      </c>
+      <c r="B6445" t="n">
+        <v>49473</v>
+      </c>
+      <c r="C6445" t="n">
+        <v>38837</v>
+      </c>
+      <c r="D6445" t="n">
+        <v>316381</v>
+      </c>
+    </row>
+    <row r="6446">
+      <c r="A6446" s="2" t="n">
+        <v>45072</v>
+      </c>
+      <c r="B6446" t="n">
+        <v>38837</v>
+      </c>
+      <c r="C6446" t="n">
+        <v>54493</v>
+      </c>
+      <c r="D6446" t="n">
+        <v>316381</v>
+      </c>
+    </row>
+    <row r="6447">
+      <c r="A6447" s="2" t="n">
+        <v>45073</v>
+      </c>
+      <c r="B6447" t="n">
+        <v>38837</v>
+      </c>
+      <c r="C6447" t="n">
+        <v>54493</v>
+      </c>
+      <c r="D6447" t="n">
+        <v>316381</v>
+      </c>
+    </row>
+    <row r="6448">
+      <c r="A6448" s="2" t="n">
+        <v>45074</v>
+      </c>
+      <c r="B6448" t="n">
+        <v>38837</v>
+      </c>
+      <c r="C6448" t="n">
+        <v>54493</v>
+      </c>
+      <c r="D6448" t="n">
+        <v>316381</v>
+      </c>
+    </row>
+    <row r="6449">
+      <c r="A6449" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="B6449" t="n">
+        <v>38837</v>
+      </c>
+      <c r="C6449" t="n">
+        <v>54493</v>
+      </c>
+      <c r="D6449" t="n">
+        <v>316381</v>
+      </c>
+    </row>
+    <row r="6450">
+      <c r="A6450" s="2" t="n">
+        <v>45076</v>
+      </c>
+      <c r="B6450" t="n">
+        <v>54493</v>
+      </c>
+      <c r="C6450" t="n">
+        <v>37357</v>
+      </c>
+      <c r="D6450" t="n">
+        <v>316381</v>
+      </c>
+    </row>
+    <row r="6451">
+      <c r="A6451" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B6451" t="n">
+        <v>37357</v>
+      </c>
+      <c r="C6451" t="n">
+        <v>48512</v>
+      </c>
+      <c r="D6451" t="n">
+        <v>316381</v>
+      </c>
+    </row>
+    <row r="6452">
+      <c r="A6452" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B6452" t="n">
+        <v>48512</v>
+      </c>
+      <c r="C6452" t="n">
+        <v>22892</v>
+      </c>
+      <c r="D6452" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6453">
+      <c r="A6453" s="2" t="n">
+        <v>45079</v>
+      </c>
+      <c r="B6453" t="n">
+        <v>22892</v>
+      </c>
+      <c r="C6453" t="n">
+        <v>23368</v>
+      </c>
+      <c r="D6453" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6454">
+      <c r="A6454" s="2" t="n">
+        <v>45080</v>
+      </c>
+      <c r="B6454" t="n">
+        <v>22892</v>
+      </c>
+      <c r="C6454" t="n">
+        <v>23368</v>
+      </c>
+      <c r="D6454" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6455">
+      <c r="A6455" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="B6455" t="n">
+        <v>22892</v>
+      </c>
+      <c r="C6455" t="n">
+        <v>23368</v>
+      </c>
+      <c r="D6455" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6456">
+      <c r="A6456" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="B6456" t="n">
+        <v>23368</v>
+      </c>
+      <c r="C6456" t="n">
+        <v>71218</v>
+      </c>
+      <c r="D6456" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6457">
+      <c r="A6457" s="2" t="n">
+        <v>45083</v>
+      </c>
+      <c r="B6457" t="n">
+        <v>71218</v>
+      </c>
+      <c r="C6457" t="n">
+        <v>71577</v>
+      </c>
+      <c r="D6457" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6458">
+      <c r="A6458" s="2" t="n">
+        <v>45084</v>
+      </c>
+      <c r="B6458" t="n">
+        <v>71577</v>
+      </c>
+      <c r="C6458" t="n">
+        <v>77500</v>
+      </c>
+      <c r="D6458" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6459">
+      <c r="A6459" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="B6459" t="n">
+        <v>77500</v>
+      </c>
+      <c r="C6459" t="n">
+        <v>87972</v>
+      </c>
+      <c r="D6459" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6460">
+      <c r="A6460" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="B6460" t="n">
+        <v>87972</v>
+      </c>
+      <c r="C6460" t="n">
+        <v>86001</v>
+      </c>
+      <c r="D6460" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6461">
+      <c r="A6461" s="2" t="n">
+        <v>45087</v>
+      </c>
+      <c r="B6461" t="n">
+        <v>87972</v>
+      </c>
+      <c r="C6461" t="n">
+        <v>86001</v>
+      </c>
+      <c r="D6461" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6462">
+      <c r="A6462" s="2" t="n">
+        <v>45088</v>
+      </c>
+      <c r="B6462" t="n">
+        <v>87972</v>
+      </c>
+      <c r="C6462" t="n">
+        <v>86001</v>
+      </c>
+      <c r="D6462" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6463">
+      <c r="A6463" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="B6463" t="n">
+        <v>86001</v>
+      </c>
+      <c r="C6463" t="n">
+        <v>100939</v>
+      </c>
+      <c r="D6463" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6464">
+      <c r="A6464" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="B6464" t="n">
+        <v>100939</v>
+      </c>
+      <c r="C6464" t="n">
+        <v>133059</v>
+      </c>
+      <c r="D6464" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6465">
+      <c r="A6465" s="2" t="n">
+        <v>45091</v>
+      </c>
+      <c r="B6465" t="n">
+        <v>133059</v>
+      </c>
+      <c r="C6465" t="n">
+        <v>134857</v>
+      </c>
+      <c r="D6465" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6466">
+      <c r="A6466" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="B6466" t="n">
+        <v>134857</v>
+      </c>
+      <c r="C6466" t="n">
+        <v>250417</v>
+      </c>
+      <c r="D6466" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6467">
+      <c r="A6467" s="2" t="n">
+        <v>45093</v>
+      </c>
+      <c r="B6467" t="n">
+        <v>250417</v>
+      </c>
+      <c r="C6467" t="n">
+        <v>266875</v>
+      </c>
+      <c r="D6467" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6468">
+      <c r="A6468" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="B6468" t="n">
+        <v>250417</v>
+      </c>
+      <c r="C6468" t="n">
+        <v>266875</v>
+      </c>
+      <c r="D6468" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6469">
+      <c r="A6469" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="B6469" t="n">
+        <v>250417</v>
+      </c>
+      <c r="C6469" t="n">
+        <v>266875</v>
+      </c>
+      <c r="D6469" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6470">
+      <c r="A6470" s="2" t="n">
+        <v>45096</v>
+      </c>
+      <c r="B6470" t="n">
+        <v>250417</v>
+      </c>
+      <c r="C6470" t="n">
+        <v>266875</v>
+      </c>
+      <c r="D6470" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6471">
+      <c r="A6471" s="2" t="n">
+        <v>45097</v>
+      </c>
+      <c r="B6471" t="n">
+        <v>266875</v>
+      </c>
+      <c r="C6471" t="n">
+        <v>327925</v>
+      </c>
+      <c r="D6471" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6472">
+      <c r="A6472" s="2" t="n">
+        <v>45098</v>
+      </c>
+      <c r="B6472" t="n">
+        <v>327925</v>
+      </c>
+      <c r="C6472" t="n">
+        <v>292106</v>
+      </c>
+      <c r="D6472" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6473">
+      <c r="A6473" s="2" t="n">
+        <v>45099</v>
+      </c>
+      <c r="B6473" t="n">
+        <v>292106</v>
+      </c>
+      <c r="C6473" t="n">
+        <v>366505</v>
+      </c>
+      <c r="D6473" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6474">
+      <c r="A6474" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="B6474" t="n">
+        <v>366505</v>
+      </c>
+      <c r="C6474" t="n">
+        <v>377384</v>
+      </c>
+      <c r="D6474" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6475">
+      <c r="A6475" s="2" t="n">
+        <v>45101</v>
+      </c>
+      <c r="B6475" t="n">
+        <v>366505</v>
+      </c>
+      <c r="C6475" t="n">
+        <v>377384</v>
+      </c>
+      <c r="D6475" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6476">
+      <c r="A6476" s="2" t="n">
+        <v>45102</v>
+      </c>
+      <c r="B6476" t="n">
+        <v>366505</v>
+      </c>
+      <c r="C6476" t="n">
+        <v>377384</v>
+      </c>
+      <c r="D6476" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6477">
+      <c r="A6477" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="B6477" t="n">
+        <v>377384</v>
+      </c>
+      <c r="C6477" t="n">
+        <v>388777</v>
+      </c>
+      <c r="D6477" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6478">
+      <c r="A6478" s="2" t="n">
+        <v>45104</v>
+      </c>
+      <c r="B6478" t="n">
+        <v>388777</v>
+      </c>
+      <c r="C6478" t="n">
+        <v>437999</v>
+      </c>
+      <c r="D6478" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6479">
+      <c r="A6479" s="2" t="n">
+        <v>45105</v>
+      </c>
+      <c r="B6479" t="n">
+        <v>437999</v>
+      </c>
+      <c r="C6479" t="n">
+        <v>408561</v>
+      </c>
+      <c r="D6479" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6480">
+      <c r="A6480" s="2" t="n">
+        <v>45106</v>
+      </c>
+      <c r="B6480" t="n">
+        <v>408561</v>
+      </c>
+      <c r="C6480" t="n">
+        <v>465122</v>
+      </c>
+      <c r="D6480" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6481">
+      <c r="A6481" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B6481" t="n">
+        <v>465122</v>
+      </c>
+      <c r="C6481" t="n">
+        <v>402394</v>
+      </c>
+      <c r="D6481" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6482">
+      <c r="A6482" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B6482" t="n">
+        <v>465122</v>
+      </c>
+      <c r="C6482" t="n">
+        <v>402394</v>
+      </c>
+      <c r="D6482" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6483">
+      <c r="A6483" s="2" t="n">
+        <v>45109</v>
+      </c>
+      <c r="B6483" t="n">
+        <v>465122</v>
+      </c>
+      <c r="C6483" t="n">
+        <v>402394</v>
+      </c>
+      <c r="D6483" t="n">
+        <v>48512</v>
+      </c>
+    </row>
+    <row r="6484">
+      <c r="A6484" s="2" t="n">
+        <v>45110</v>
+      </c>
+      <c r="B6484" t="n">
+        <v>402394</v>
+      </c>
+      <c r="C6484" t="n">
+        <v>394457</v>
+      </c>
+      <c r="D6484" t="n">
+        <v>402394</v>
+      </c>
+    </row>
+    <row r="6485">
+      <c r="A6485" s="2" t="n">
+        <v>45111</v>
+      </c>
+      <c r="B6485" t="n">
+        <v>402394</v>
+      </c>
+      <c r="C6485" t="n">
+        <v>394457</v>
+      </c>
+      <c r="D6485" t="n">
+        <v>402394</v>
+      </c>
+    </row>
+    <row r="6486">
+      <c r="A6486" s="2" t="n">
+        <v>45112</v>
+      </c>
+      <c r="B6486" t="n">
+        <v>394457</v>
+      </c>
+      <c r="C6486" t="n">
+        <v>446864</v>
+      </c>
+      <c r="D6486" t="n">
+        <v>402394</v>
+      </c>
+    </row>
+    <row r="6487">
+      <c r="A6487" s="2" t="n">
+        <v>45113</v>
+      </c>
+      <c r="B6487" t="n">
+        <v>446864</v>
+      </c>
+      <c r="C6487" t="n">
+        <v>513410</v>
+      </c>
+      <c r="D6487" t="n">
+        <v>402394</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
